--- a/Programas-Notebooks/Federated-LSTM-Shallow/Exp_0000032/experimentos.xlsx
+++ b/Programas-Notebooks/Federated-LSTM-Shallow/Exp_0000032/experimentos.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1_1L" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Plan1_10L" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Plan1_20L" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Consolidacao" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Plan1_40L" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Consolidacao" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t xml:space="preserve">Protocolos</t>
   </si>
@@ -34,55 +35,17 @@
     <t xml:space="preserve">Média</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
+    <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
 (1Gbps 10ms – 360s iniciais), 
 (150Kbps,3000ms), (500Kbps,2000ms) ,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1Mbps,1000ms)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+(1Mbps,1000ms)
 2h de simulação 1 Longo
 Melhor enlace nos primeiros 360 s (aproximadamente o dobro do tempo para todos os longos subirem)
-Notou-se que, com os enlaces considerados, não foi suficiente para encher os buffers. Daí limitou-se a conexão entre os roteadores a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(500Kbps 10ms – 360s iniciais), 
+Notou-se que, com os enlaces considerados, não foi suficiente para encher os buffers. Daí limitou-se a conexão entre os roteadores a (500Kbps 10ms – 360s iniciais), 
 (150Kbps,1000ms),(100Kbps, 3000ms) (50Kbps,2000ms) ,
 Observou-se ainda que, nesse cenário, o Vegas não eleva o buffer do roteador para o nível 2. Daí o treinamento foi realizado com os dados do CUBIC.
 Também parece que a diferença aumenta com o termpo de simulação. Pensar em fazer simulações sempre com duas horas.
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Bbr</t>
@@ -100,42 +63,13 @@
     <t xml:space="preserve">Vegas++</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
+    <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
 (1Gbps 10ms – 2400s iniciais), 
 (150Kbps,3000ms), (500Kbps,2000ms) ,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1Mbps,1000ms)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+(1Mbps,1000ms)
 1h de simulação 10 Longos
 Melhor enlace nos primeiros 1200 s (aproximadamente o dobro do tempo para todos os longos subirem). Os fluxos longos, uma vez estabelecodos, ficam até o final
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Exp01</t>
@@ -150,6 +84,13 @@
     <t xml:space="preserve">Exp04</t>
   </si>
   <si>
+    <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
+(1Gbps 10ms – 2400s iniciais), 
+(150Kbps,3000ms), (500Kbps,2000ms) ,
+(1Mbps,1000ms)
+2h de simulação 20 Longos</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -159,9 +100,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Variando-se o enlace do roteador de 30 em 30 seg. 
-(1Gbps 10ms – 2400s iniciais), 
-(150Kbps,3000ms), (500Kbps,2000ms) ,
-</t>
+(1Gbps 10ms – 360s iniciais), </t>
     </r>
     <r>
       <rPr>
@@ -170,8 +109,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(1Mbps,1000ms)
-</t>
+      <t xml:space="preserve">(1Mbps,1000ms),</t>
     </r>
     <r>
       <rPr>
@@ -181,8 +119,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-2h de simulação 20 Longos</t>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">500Kbps,2000ms) , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(150Kbps,3000ms),  
+Os 40 fluxos demoram 2000s para subirem. Vamos deixá-los 1200s (20min) com enlace de 1Gbps no início daí agendar a trocs para 3200s. Depois vamos alternar os demais enlaces de 2 em 2 min.  Posteriormente os fluxos vão terminando paulatinamente até serem completamente extintos em 6000s
+3h de simulação 1 Longo
+Melhor enlace nos primeiros 1200s (20min)  (aproximadamente o dobro do tempo para todos os longos subirem).</t>
     </r>
   </si>
   <si>
@@ -232,14 +191,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -304,7 +263,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,16 +287,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -412,7 +371,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -458,6 +417,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -554,6 +514,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -650,6 +611,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -746,6 +708,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -842,6 +805,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -905,17 +869,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60017189"/>
-        <c:axId val="97621128"/>
+        <c:axId val="27562118"/>
+        <c:axId val="53926389"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60017189"/>
+        <c:axId val="27562118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -937,7 +901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97621128"/>
+        <c:crossAx val="53926389"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97621128"/>
+        <c:axId val="53926389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +924,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -982,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60017189"/>
+        <c:crossAx val="27562118"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1074,7 +1038,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Consolidacao!$B$1</c:f>
+              <c:f>Consolidacao!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1104,6 +1068,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1158,7 +1123,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Consolidacao!$C$1</c:f>
+              <c:f>Consolidacao!$C$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1188,6 +1153,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1242,7 +1208,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Consolidacao!$D$1</c:f>
+              <c:f>Consolidacao!$D$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,6 +1238,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1326,7 +1293,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Consolidacao!$E$1</c:f>
+              <c:f>Consolidacao!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,6 +1323,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1410,7 +1378,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Consolidacao!$F$1</c:f>
+              <c:f>Consolidacao!$F$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,6 +1408,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1491,11 +1460,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80610574"/>
-        <c:axId val="19680093"/>
+        <c:axId val="47518739"/>
+        <c:axId val="89951787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80610574"/>
+        <c:axId val="47518739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1498,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1551,7 +1520,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19680093"/>
+        <c:crossAx val="89951787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19680093"/>
+        <c:axId val="89951787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1571,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1624,7 +1593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80610574"/>
+        <c:crossAx val="47518739"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,9 +1652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1694,7 +1663,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6497640" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1718,9 +1687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>636120</xdr:colOff>
+      <xdr:colOff>635760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1729,7 +1698,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="427680" y="959760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1749,7 +1718,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2094,7 +2063,7 @@
       <c r="D2" s="5" t="n">
         <v>84.691</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="6" t="n">
         <v>154.771</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -2283,7 +2252,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2302,26 +2271,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2344,9 +2313,9 @@
         <v>197.45525</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2369,9 +2338,9 @@
         <v>625.381</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2394,9 +2363,9 @@
         <v>661.66825</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2419,9 +2388,9 @@
         <v>654.7375</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2444,29 +2413,29 @@
         <v>721.86425</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2495,6 +2464,264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1159.43</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1157.61</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1165.49</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1162.18</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1158.8</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1156.13</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">SUM(B6:E6)/4</f>
+        <v>1160.65</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:L21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2531,15 +2758,15 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="n">
         <f aca="false">Plan1_1L!F2</f>
@@ -2562,15 +2789,15 @@
         <v>264.45525</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <f aca="false">Plan1_10L!F2</f>
         <v>92.3645</v>
       </c>
@@ -2578,71 +2805,71 @@
         <f aca="false">Plan1_10L!F3</f>
         <v>358.94175</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="6" t="n">
         <f aca="false">Plan1_10L!F4</f>
         <v>374.6105</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="6" t="n">
         <f aca="false">Plan1_10L!F5</f>
         <v>376.64525</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="6" t="n">
         <f aca="false">Plan1_10L!F6</f>
         <v>389.552</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <f aca="false">Plan1_20L!F2</f>
         <v>197.45525</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">Plan1_20L!F3</f>
         <v>625.381</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">Plan1_20L!F4</f>
         <v>661.66825</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="6" t="n">
         <f aca="false">Plan1_20L!F5</f>
         <v>654.7375</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="6" t="n">
         <f aca="false">Plan1_20L!F6</f>
         <v>721.86425</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="1" t="n">
